--- a/70304_checked.xlsx
+++ b/70304_checked.xlsx
@@ -658,48 +658,48 @@
     <cellStyle name="20% - Colore 6" xfId="39" builtinId="50"/>
     <cellStyle name="40% - Colore 6" xfId="40" builtinId="51"/>
     <cellStyle name="60% - Colore 6" xfId="41" builtinId="52"/>
-    <cellStyle name="cd2" xfId="42" hidden="0"/>
-    <cellStyle name="cd3" xfId="43" hidden="0"/>
-    <cellStyle name="cd4" xfId="44" hidden="0"/>
-    <cellStyle name="cd5" xfId="45" hidden="0"/>
-    <cellStyle name="cd6" xfId="46" hidden="0"/>
-    <cellStyle name="cd7" xfId="47" hidden="0"/>
-    <cellStyle name="cd8" xfId="48" hidden="0"/>
-    <cellStyle name="cd9" xfId="49" hidden="0"/>
-    <cellStyle name="cd10" xfId="50" hidden="0"/>
-    <cellStyle name="cd11" xfId="51" hidden="0"/>
-    <cellStyle name="cd12" xfId="52" hidden="0"/>
-    <cellStyle name="cd13" xfId="53" hidden="0"/>
-    <cellStyle name="cd14" xfId="54" hidden="0"/>
-    <cellStyle name="cd15" xfId="55" hidden="0"/>
-    <cellStyle name="cd16" xfId="56" hidden="0"/>
-    <cellStyle name="cd17" xfId="57" hidden="0"/>
-    <cellStyle name="cd18" xfId="58" hidden="0"/>
-    <cellStyle name="cd19" xfId="59" hidden="0"/>
-    <cellStyle name="cd20" xfId="60" hidden="0"/>
-    <cellStyle name="cd21" xfId="61" hidden="0"/>
-    <cellStyle name="cd22" xfId="62" hidden="0"/>
-    <cellStyle name="cd23" xfId="63" hidden="0"/>
-    <cellStyle name="cd24" xfId="64" hidden="0"/>
-    <cellStyle name="cd25" xfId="65" hidden="0"/>
-    <cellStyle name="cd26" xfId="66" hidden="0"/>
-    <cellStyle name="cd27" xfId="67" hidden="0"/>
-    <cellStyle name="cd28" xfId="68" hidden="0"/>
-    <cellStyle name="cd29" xfId="69" hidden="0"/>
-    <cellStyle name="cd30" xfId="70" hidden="0"/>
-    <cellStyle name="cd31" xfId="71" hidden="0"/>
-    <cellStyle name="cd32" xfId="72" hidden="0"/>
-    <cellStyle name="cd33" xfId="73" hidden="0"/>
-    <cellStyle name="cd34" xfId="74" hidden="0"/>
-    <cellStyle name="cd35" xfId="75" hidden="0"/>
-    <cellStyle name="cd36" xfId="76" hidden="0"/>
-    <cellStyle name="cd37" xfId="77" hidden="0"/>
-    <cellStyle name="cd38" xfId="78" hidden="0"/>
-    <cellStyle name="cd39" xfId="79" hidden="0"/>
-    <cellStyle name="cd40" xfId="80" hidden="0"/>
-    <cellStyle name="cd41" xfId="81" hidden="0"/>
-    <cellStyle name="cd42" xfId="82" hidden="0"/>
-    <cellStyle name="cd43" xfId="83" hidden="0"/>
+    <cellStyle name="ddmmaaaa-2" xfId="42" hidden="0"/>
+    <cellStyle name="ddmmaaaa-3" xfId="43" hidden="0"/>
+    <cellStyle name="ddmmaaaa-4" xfId="44" hidden="0"/>
+    <cellStyle name="ddmmaaaa-5" xfId="45" hidden="0"/>
+    <cellStyle name="ddmmaaaa-6" xfId="46" hidden="0"/>
+    <cellStyle name="ddmmaaaa-7" xfId="47" hidden="0"/>
+    <cellStyle name="ddmmaaaa-8" xfId="48" hidden="0"/>
+    <cellStyle name="ddmmaaaa-9" xfId="49" hidden="0"/>
+    <cellStyle name="ddmmaaaa-10" xfId="50" hidden="0"/>
+    <cellStyle name="ddmmaaaa-11" xfId="51" hidden="0"/>
+    <cellStyle name="ddmmaaaa-12" xfId="52" hidden="0"/>
+    <cellStyle name="ddmmaaaa-13" xfId="53" hidden="0"/>
+    <cellStyle name="ddmmaaaa-14" xfId="54" hidden="0"/>
+    <cellStyle name="ddmmaaaa-15" xfId="55" hidden="0"/>
+    <cellStyle name="ddmmaaaa-16" xfId="56" hidden="0"/>
+    <cellStyle name="ddmmaaaa-17" xfId="57" hidden="0"/>
+    <cellStyle name="ddmmaaaa-18" xfId="58" hidden="0"/>
+    <cellStyle name="ddmmaaaa-19" xfId="59" hidden="0"/>
+    <cellStyle name="ddmmaaaa-20" xfId="60" hidden="0"/>
+    <cellStyle name="ddmmaaaa-21" xfId="61" hidden="0"/>
+    <cellStyle name="ddmmaaaa-22" xfId="62" hidden="0"/>
+    <cellStyle name="ddmmaaaa-23" xfId="63" hidden="0"/>
+    <cellStyle name="ddmmaaaa-24" xfId="64" hidden="0"/>
+    <cellStyle name="ddmmaaaa-25" xfId="65" hidden="0"/>
+    <cellStyle name="ddmmaaaa-26" xfId="66" hidden="0"/>
+    <cellStyle name="ddmmaaaa-27" xfId="67" hidden="0"/>
+    <cellStyle name="ddmmaaaa-28" xfId="68" hidden="0"/>
+    <cellStyle name="ddmmaaaa-29" xfId="69" hidden="0"/>
+    <cellStyle name="ddmmaaaa-30" xfId="70" hidden="0"/>
+    <cellStyle name="ddmmaaaa-31" xfId="71" hidden="0"/>
+    <cellStyle name="ddmmaaaa-32" xfId="72" hidden="0"/>
+    <cellStyle name="ddmmaaaa-33" xfId="73" hidden="0"/>
+    <cellStyle name="ddmmaaaa-34" xfId="74" hidden="0"/>
+    <cellStyle name="ddmmaaaa-35" xfId="75" hidden="0"/>
+    <cellStyle name="ddmmaaaa-36" xfId="76" hidden="0"/>
+    <cellStyle name="ddmmaaaa-37" xfId="77" hidden="0"/>
+    <cellStyle name="ddmmaaaa-38" xfId="78" hidden="0"/>
+    <cellStyle name="ddmmaaaa-39" xfId="79" hidden="0"/>
+    <cellStyle name="ddmmaaaa-40" xfId="80" hidden="0"/>
+    <cellStyle name="ddmmaaaa-41" xfId="81" hidden="0"/>
+    <cellStyle name="ddmmaaaa-42" xfId="82" hidden="0"/>
+    <cellStyle name="ddmmaaaa-43" xfId="83" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25.5" customHeight="1"/>
@@ -1087,7 +1087,7 @@
     <col width="18.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="13.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="22.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="5.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="12.6640625" customWidth="1" min="7" max="7"/>
     <col width="14.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="15.33203125" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="11.83203125" bestFit="1" customWidth="1" min="10" max="10"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Busnago</t>
+          <t>BUSNAGO</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Seveso</t>
+          <t>SEVESO</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -1350,15 +1350,15 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>VIA ITALIA,9</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Vedano al Lambro</t>
+          <t>VEDANO AL LAMBRO</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Brugherio</t>
+          <t>BRUGHERIO</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>RENATE</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Ornago</t>
+          <t>ORNAGO</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Cogliate</t>
+          <t>COGLIATE</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Biassono</t>
+          <t>BIASSONO</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>Brugherio</t>
+          <t>BRUGHERIO</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>Arcore</t>
+          <t>ARCORE</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>MONZA</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Seregno</t>
+          <t>SEREGNO</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Cesano Maderno</t>
+          <t>CESANO MADERNO</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Rogeno</t>
+          <t>ROGENO</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LECCO</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LECCO</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>MONZA</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Bellusco</t>
+          <t>BELLUSCO</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Bellusco</t>
+          <t>BELLUSCO</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Bovisio-Masciago</t>
+          <t>BOVISIO-MASCIAGO</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Vedano al Lambro</t>
+          <t>VEDANO AL LAMBRO</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Vimercate</t>
+          <t>VIMERCATE</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Brugherio</t>
+          <t>BRUGHERIO</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>Usmate Velate</t>
+          <t>USMATE VELATE</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Casatenovo</t>
+          <t>CASATENOVO</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Colico</t>
+          <t>COLICO</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Brugherio</t>
+          <t>BRUGHERIO</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>Bellusco</t>
+          <t>BELLUSCO</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Sirtori</t>
+          <t>SIRTORI</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Bonifati</t>
+          <t>BONIFATI</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Roncello</t>
+          <t>RONCELLO</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>Lissone</t>
+          <t>LISSONE</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>RENATE</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>VIA D'ANNUNZIO,6/F</t>
+          <t>VIA D ANNUNZIO,6/F</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>Roncello</t>
+          <t>RONCELLO</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>Carate Brianza</t>
+          <t>CARATE BRIANZA</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>Cesano Maderno</t>
+          <t>CESANO MADERNO</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>Giussano</t>
+          <t>GIUSSANO</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>Carate Brianza</t>
+          <t>CARATE BRIANZA</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>Bernareggio</t>
+          <t>BERNAREGGIO</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>Limbiate</t>
+          <t>LIMBIATE</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>Ceriano Laghetto</t>
+          <t>CERIANO LAGHETTO</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="43" ht="25.5" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>ZAPPALA</t>
+          <t xml:space="preserve">ZAPPALA </t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>Villasanta</t>
+          <t>VILLASANTA</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
